--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$141</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5247" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5284" uniqueCount="536">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1018,6 +1018,19 @@
     <t>http://fhir.de/onkologie/ValueSet/icd-o-3-morphologie</t>
   </si>
   <si>
+    <t>diagnosesicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.vision-zero-oncology.de/fhir/StructureDefinition/diagnosesicherung-icd-o}
+</t>
+  </si>
+  <si>
+    <t>Diagnosesicherung ICD O</t>
+  </si>
+  <si>
+    <t>Extension für die Erfassung der Diagnosesicherung der ICD-O-3</t>
+  </si>
+  <si>
     <t>Condition.code.text</t>
   </si>
   <si>
@@ -1109,6 +1122,9 @@
   </si>
   <si>
     <t>icdo3-t</t>
+  </si>
+  <si>
+    <t>http://fhir.de/onkologie/ValueSet/icd-o-3-topologie</t>
   </si>
   <si>
     <t>Condition.bodySite.text</t>
@@ -2023,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO140"/>
+  <dimension ref="A1:AO141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8915,15 +8931,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>90</v>
@@ -8935,23 +8953,19 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8999,19 +9013,19 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9020,10 +9034,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9032,9 +9046,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9042,13 +9056,13 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9057,18 +9071,20 @@
         <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9116,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>80</v>
@@ -9137,10 +9153,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9149,9 +9165,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9159,13 +9175,13 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9174,18 +9190,18 @@
         <v>91</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9233,7 +9249,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>80</v>
@@ -9254,10 +9270,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9266,9 +9282,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9276,13 +9292,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9291,17 +9307,17 @@
         <v>91</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9350,7 +9366,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>80</v>
@@ -9371,10 +9387,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9385,7 +9401,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9408,19 +9424,17 @@
         <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9469,7 +9483,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>80</v>
@@ -9490,10 +9504,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9502,9 +9516,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9518,7 +9532,7 @@
         <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9527,19 +9541,19 @@
         <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9588,7 +9602,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>80</v>
@@ -9597,7 +9611,7 @@
         <v>90</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9609,10 +9623,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9623,7 +9637,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9634,7 +9648,7 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
@@ -9646,18 +9660,20 @@
         <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9681,13 +9697,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9705,13 +9721,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>102</v>
@@ -9723,24 +9739,24 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9751,27 +9767,29 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9796,13 +9814,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9820,53 +9838,53 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>111</v>
+        <v>336</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9878,17 +9896,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9925,31 +9941,31 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -9972,15 +9988,15 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>81</v>
@@ -9992,23 +10008,21 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10044,9 +10058,11 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10054,7 +10070,7 @@
         <v>144</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>80</v>
@@ -10066,7 +10082,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10075,10 +10091,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10087,25 +10103,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10151,26 +10165,26 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>242</v>
@@ -10206,11 +10220,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10222,25 +10238,29 @@
         <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10264,13 +10284,11 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10288,19 +10306,19 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10309,10 +10327,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10323,18 +10341,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10346,17 +10364,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10393,31 +10409,31 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10438,45 +10454,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10512,31 +10526,31 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10545,10 +10559,10 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10557,9 +10571,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10567,13 +10581,13 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10582,18 +10596,20 @@
         <v>91</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10641,7 +10657,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>80</v>
@@ -10662,10 +10678,10 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10674,9 +10690,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10684,13 +10700,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10699,18 +10715,18 @@
         <v>91</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10758,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>80</v>
@@ -10779,10 +10795,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10793,7 +10809,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10801,7 +10817,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>90</v>
@@ -10816,17 +10832,17 @@
         <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10875,7 +10891,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>80</v>
@@ -10896,10 +10912,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10908,9 +10924,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10924,7 +10940,7 @@
         <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10933,19 +10949,17 @@
         <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10994,7 +11008,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>80</v>
@@ -11015,10 +11029,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11027,25 +11041,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11054,19 +11066,19 @@
         <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11091,11 +11103,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11113,13 +11127,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11134,10 +11148,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11146,41 +11160,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11204,13 +11224,11 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11228,19 +11246,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11249,10 +11267,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11263,18 +11281,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11286,17 +11304,15 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11333,31 +11349,31 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11378,45 +11394,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11452,31 +11466,31 @@
         <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11485,10 +11499,10 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11499,7 +11513,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11522,18 +11536,20 @@
         <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11581,7 +11597,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>80</v>
@@ -11602,10 +11618,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11616,7 +11632,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11639,18 +11655,18 @@
         <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11698,7 +11714,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>80</v>
@@ -11719,10 +11735,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11733,7 +11749,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11741,7 +11757,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>90</v>
@@ -11756,17 +11772,17 @@
         <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11815,7 +11831,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>80</v>
@@ -11836,10 +11852,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11848,9 +11864,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11864,7 +11880,7 @@
         <v>90</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11873,19 +11889,17 @@
         <v>91</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11934,7 +11948,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>80</v>
@@ -11955,10 +11969,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11969,7 +11983,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11992,19 +12006,19 @@
         <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12053,7 +12067,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>80</v>
@@ -12074,10 +12088,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12086,23 +12100,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12111,19 +12125,19 @@
         <v>91</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12172,74 +12186,78 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>229</v>
+        <v>356</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12287,34 +12305,34 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12322,18 +12340,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12345,17 +12363,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12392,31 +12408,31 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12428,7 +12444,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12437,41 +12453,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12509,31 +12525,31 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>367</v>
+        <v>102</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12554,9 +12570,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12564,13 +12580,13 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12579,16 +12595,16 @@
         <v>91</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12614,40 +12630,40 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH90" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>103</v>
@@ -12673,7 +12689,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12696,16 +12712,16 @@
         <v>91</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12731,13 +12747,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12776,10 +12792,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12790,7 +12806,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12813,16 +12829,16 @@
         <v>91</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12872,7 +12888,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>80</v>
@@ -12893,10 +12909,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>104</v>
+        <v>385</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12905,7 +12921,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>386</v>
       </c>
@@ -12921,7 +12937,7 @@
         <v>90</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12930,16 +12946,16 @@
         <v>91</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12989,7 +13005,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>80</v>
@@ -13001,30 +13017,30 @@
         <v>102</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13047,16 +13063,16 @@
         <v>91</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13094,17 +13110,19 @@
         <v>79</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AB94" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>80</v>
@@ -13116,22 +13134,22 @@
         <v>102</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13139,11 +13157,9 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13155,7 +13171,7 @@
         <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13164,16 +13180,16 @@
         <v>91</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13211,19 +13227,17 @@
         <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="AB95" s="2"/>
       <c r="AC95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>80</v>
@@ -13238,19 +13252,19 @@
         <v>103</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13258,9 +13272,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13278,18 +13294,20 @@
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>92</v>
+        <v>412</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>229</v>
+        <v>402</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13338,7 +13356,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>80</v>
@@ -13347,25 +13365,25 @@
         <v>90</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>111</v>
+        <v>409</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13373,18 +13391,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13396,17 +13414,15 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13443,31 +13459,31 @@
         <v>79</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>79</v>
@@ -13479,7 +13495,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13490,18 +13506,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13510,19 +13526,19 @@
         <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>411</v>
+        <v>138</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>412</v>
+        <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>413</v>
+        <v>233</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>414</v>
+        <v>141</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13560,31 +13576,31 @@
         <v>79</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13593,10 +13609,10 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>418</v>
+        <v>104</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13607,7 +13623,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13627,18 +13643,20 @@
         <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13687,7 +13705,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>80</v>
@@ -13696,10 +13714,10 @@
         <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -13708,10 +13726,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>111</v>
+        <v>423</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -13722,18 +13740,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13745,17 +13763,15 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13792,31 +13808,31 @@
         <v>79</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>79</v>
@@ -13828,7 +13844,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -13839,11 +13855,9 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>137</v>
       </c>
@@ -13852,7 +13866,7 @@
         <v>80</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>79</v>
@@ -13864,13 +13878,13 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>422</v>
+        <v>138</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>141</v>
@@ -13911,16 +13925,16 @@
         <v>79</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE101" t="s" s="2">
         <v>234</v>
@@ -13958,11 +13972,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B102" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="C102" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13981,15 +13997,17 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -14038,19 +14056,19 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>79</v>
@@ -14062,7 +14080,7 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14073,7 +14091,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14093,72 +14111,68 @@
         <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M103" t="s" s="2">
         <v>429</v>
       </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P103" t="s" s="2">
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Q103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AF103" t="s" s="2">
         <v>80</v>
       </c>
@@ -14166,10 +14180,10 @@
         <v>90</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>79</v>
@@ -14178,10 +14192,10 @@
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14192,7 +14206,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14212,23 +14226,27 @@
         <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>229</v>
+        <v>432</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="Q104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14272,7 +14290,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>231</v>
+        <v>436</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>80</v>
@@ -14281,10 +14299,10 @@
         <v>90</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>79</v>
@@ -14293,10 +14311,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14307,18 +14325,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>79</v>
@@ -14330,17 +14348,15 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14377,31 +14393,31 @@
         <v>79</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>79</v>
@@ -14413,7 +14429,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14424,11 +14440,9 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
         <v>137</v>
       </c>
@@ -14437,7 +14451,7 @@
         <v>80</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>79</v>
@@ -14449,13 +14463,13 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>422</v>
+        <v>138</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>141</v>
@@ -14496,16 +14510,16 @@
         <v>79</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE106" t="s" s="2">
         <v>234</v>
@@ -14543,11 +14557,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C107" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14566,15 +14582,17 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>424</v>
+        <v>254</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14623,19 +14641,19 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>79</v>
@@ -14647,7 +14665,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -14658,11 +14676,9 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
         <v>79</v>
       </c>
@@ -14680,20 +14696,18 @@
         <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -14742,7 +14756,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>80</v>
@@ -14751,35 +14765,37 @@
         <v>90</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="C109" t="s" s="2">
         <v>79</v>
       </c>
@@ -14791,25 +14807,25 @@
         <v>90</v>
       </c>
       <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J109" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14859,7 +14875,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>80</v>
@@ -14868,25 +14884,25 @@
         <v>90</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>443</v>
+        <v>102</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -14894,7 +14910,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14902,7 +14918,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>90</v>
@@ -14914,18 +14930,20 @@
         <v>79</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L110" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>79</v>
@@ -14974,7 +14992,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>80</v>
@@ -14983,7 +15001,7 @@
         <v>90</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>103</v>
@@ -14995,21 +15013,21 @@
         <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN110" t="s" s="2">
+      <c r="AO110" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15017,13 +15035,13 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>79</v>
@@ -15032,17 +15050,15 @@
         <v>91</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K111" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15091,7 +15107,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>80</v>
@@ -15103,7 +15119,7 @@
         <v>102</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>79</v>
@@ -15112,13 +15128,13 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>79</v>
@@ -15126,7 +15142,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15149,7 +15165,7 @@
         <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>459</v>
@@ -15158,7 +15174,7 @@
         <v>460</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15208,7 +15224,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>80</v>
@@ -15220,7 +15236,7 @@
         <v>102</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>79</v>
@@ -15229,13 +15245,13 @@
         <v>79</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM112" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AN112" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>79</v>
@@ -15243,7 +15259,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15254,27 +15270,29 @@
         <v>80</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J113" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K113" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M113" s="2"/>
+      <c r="M113" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>79</v>
@@ -15311,44 +15329,46 @@
         <v>79</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AB113" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AI113" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>79</v>
@@ -15356,7 +15376,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15367,10 +15387,10 @@
         <v>80</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15379,13 +15399,13 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>92</v>
+        <v>470</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>230</v>
+        <v>472</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15424,31 +15444,29 @@
         <v>79</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="AB114" s="2"/>
       <c r="AC114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>79</v>
@@ -15460,7 +15478,7 @@
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>111</v>
+        <v>474</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15471,18 +15489,18 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>79</v>
@@ -15494,17 +15512,15 @@
         <v>79</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15541,31 +15557,31 @@
         <v>79</v>
       </c>
       <c r="AA115" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD115" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>79</v>
@@ -15577,7 +15593,7 @@
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
@@ -15588,11 +15604,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15605,26 +15621,24 @@
         <v>79</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N116" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>79</v>
       </c>
@@ -15660,19 +15674,19 @@
         <v>79</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>476</v>
+        <v>234</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>80</v>
@@ -15711,37 +15725,39 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
       </c>
@@ -15765,55 +15781,55 @@
         <v>79</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE117" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AF117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>482</v>
+        <v>102</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -15824,7 +15840,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15835,7 +15851,7 @@
         <v>80</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>79</v>
@@ -15847,16 +15863,16 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>485</v>
+        <v>168</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15882,13 +15898,13 @@
         <v>79</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -15906,31 +15922,31 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>488</v>
+        <v>225</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -15952,7 +15968,7 @@
         <v>80</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>79</v>
@@ -15964,16 +15980,16 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>168</v>
+        <v>490</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15999,13 +16015,13 @@
         <v>79</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>79</v>
@@ -16029,13 +16045,13 @@
         <v>80</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>102</v>
+        <v>487</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>79</v>
@@ -16044,10 +16060,10 @@
         <v>79</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16058,11 +16074,9 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
         <v>79</v>
       </c>
@@ -16071,7 +16085,7 @@
         <v>80</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>79</v>
@@ -16083,15 +16097,17 @@
         <v>79</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>79</v>
@@ -16116,13 +16132,13 @@
         <v>79</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
@@ -16140,19 +16156,19 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>79</v>
@@ -16161,10 +16177,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16175,9 +16191,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B121" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="C121" t="s" s="2">
         <v>79</v>
       </c>
@@ -16186,7 +16204,7 @@
         <v>80</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>79</v>
@@ -16198,13 +16216,13 @@
         <v>79</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>92</v>
+        <v>470</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>230</v>
+        <v>472</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16255,19 +16273,19 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>79</v>
@@ -16279,7 +16297,7 @@
         <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>111</v>
+        <v>474</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16290,18 +16308,18 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>79</v>
@@ -16313,17 +16331,15 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>79</v>
@@ -16360,31 +16376,31 @@
         <v>79</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>79</v>
@@ -16396,7 +16412,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16407,11 +16423,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16424,26 +16440,24 @@
         <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N123" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>79</v>
       </c>
@@ -16479,19 +16493,19 @@
         <v>79</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>476</v>
+        <v>234</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>80</v>
@@ -16530,37 +16544,39 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N124" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>79</v>
       </c>
@@ -16584,66 +16600,66 @@
         <v>79</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Y124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE124" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AF124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16654,10 +16670,10 @@
         <v>80</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>79</v>
@@ -16666,16 +16682,16 @@
         <v>79</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>496</v>
+        <v>168</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16701,13 +16717,13 @@
         <v>79</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>79</v>
@@ -16725,31 +16741,31 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>488</v>
+        <v>225</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -16768,10 +16784,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>91</v>
@@ -16783,16 +16799,16 @@
         <v>79</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>168</v>
+        <v>501</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16803,7 +16819,7 @@
         <v>79</v>
       </c>
       <c r="R126" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>79</v>
@@ -16818,13 +16834,13 @@
         <v>79</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>79</v>
@@ -16848,13 +16864,13 @@
         <v>80</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>102</v>
+        <v>487</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>79</v>
@@ -16863,10 +16879,10 @@
         <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -16877,20 +16893,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>91</v>
@@ -16902,15 +16916,17 @@
         <v>79</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>79</v>
@@ -16920,7 +16936,7 @@
         <v>79</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>79</v>
@@ -16935,13 +16951,13 @@
         <v>79</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>79</v>
@@ -16959,19 +16975,19 @@
         <v>79</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>79</v>
@@ -16980,23 +16996,25 @@
         <v>79</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM127" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AN127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B128" s="2"/>
+      <c r="B128" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="C128" t="s" s="2">
         <v>79</v>
       </c>
@@ -17005,10 +17023,10 @@
         <v>80</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>79</v>
@@ -17017,13 +17035,13 @@
         <v>79</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>92</v>
+        <v>470</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>230</v>
+        <v>472</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17074,19 +17092,19 @@
         <v>79</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>79</v>
@@ -17098,7 +17116,7 @@
         <v>79</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>111</v>
+        <v>474</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>79</v>
@@ -17109,18 +17127,18 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>79</v>
@@ -17132,17 +17150,15 @@
         <v>79</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>79</v>
@@ -17179,31 +17195,31 @@
         <v>79</v>
       </c>
       <c r="AA129" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD129" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>79</v>
@@ -17215,7 +17231,7 @@
         <v>79</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>79</v>
@@ -17226,11 +17242,11 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17243,26 +17259,24 @@
         <v>79</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N130" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>79</v>
       </c>
@@ -17298,19 +17312,19 @@
         <v>79</v>
       </c>
       <c r="AA130" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD130" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>476</v>
+        <v>234</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>80</v>
@@ -17349,37 +17363,39 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
       </c>
@@ -17403,66 +17419,66 @@
         <v>79</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Y131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE131" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AF131" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17473,10 +17489,10 @@
         <v>80</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>79</v>
@@ -17485,16 +17501,16 @@
         <v>79</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>499</v>
+        <v>168</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17520,13 +17536,13 @@
         <v>79</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
@@ -17544,31 +17560,31 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>488</v>
+        <v>225</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -17587,10 +17603,10 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>91</v>
@@ -17602,16 +17618,16 @@
         <v>79</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>168</v>
+        <v>504</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17622,7 +17638,7 @@
         <v>79</v>
       </c>
       <c r="R133" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>79</v>
@@ -17637,13 +17653,13 @@
         <v>79</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>79</v>
@@ -17667,13 +17683,13 @@
         <v>80</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>102</v>
+        <v>487</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>79</v>
@@ -17682,10 +17698,10 @@
         <v>79</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -17696,7 +17712,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17704,10 +17720,10 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>91</v>
@@ -17719,16 +17735,16 @@
         <v>79</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>504</v>
+        <v>216</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17739,7 +17755,7 @@
         <v>79</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>79</v>
@@ -17754,13 +17770,13 @@
         <v>79</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>79</v>
@@ -17778,19 +17794,19 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>505</v>
+        <v>103</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>79</v>
@@ -17799,21 +17815,21 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM134" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17824,10 +17840,10 @@
         <v>80</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>79</v>
@@ -17836,15 +17852,17 @@
         <v>79</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>92</v>
+        <v>470</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M135" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>79</v>
@@ -17893,19 +17911,19 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>231</v>
+        <v>506</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>79</v>
@@ -17917,7 +17935,7 @@
         <v>79</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>111</v>
+        <v>511</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -17928,18 +17946,18 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>79</v>
@@ -17951,17 +17969,15 @@
         <v>79</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>79</v>
@@ -17998,31 +18014,31 @@
         <v>79</v>
       </c>
       <c r="AA136" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AC136" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD136" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>79</v>
@@ -18034,7 +18050,7 @@
         <v>79</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>79</v>
@@ -18045,11 +18061,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>473</v>
+        <v>137</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18062,26 +18078,24 @@
         <v>79</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>138</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>474</v>
+        <v>139</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>475</v>
+        <v>233</v>
       </c>
       <c r="M137" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="N137" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>79</v>
       </c>
@@ -18117,19 +18131,19 @@
         <v>79</v>
       </c>
       <c r="AA137" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AC137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>476</v>
+        <v>234</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>80</v>
@@ -18164,11 +18178,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18181,24 +18195,26 @@
         <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>79</v>
       </c>
@@ -18222,13 +18238,13 @@
         <v>79</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>79</v>
@@ -18246,7 +18262,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>80</v>
@@ -18255,33 +18271,33 @@
         <v>81</v>
       </c>
       <c r="AH138" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18295,7 +18311,7 @@
         <v>81</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>79</v>
@@ -18304,16 +18320,16 @@
         <v>91</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>520</v>
+        <v>168</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>353</v>
+        <v>216</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18339,13 +18355,13 @@
         <v>79</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>79</v>
@@ -18363,7 +18379,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>80</v>
@@ -18372,25 +18388,25 @@
         <v>81</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>79</v>
@@ -18398,7 +18414,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18418,19 +18434,19 @@
         <v>79</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>527</v>
+        <v>358</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18480,7 +18496,7 @@
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>80</v>
@@ -18489,32 +18505,149 @@
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH141" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI140" t="s" s="2">
+      <c r="AI141" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ140" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO140" t="s" s="2">
+      <c r="AJ141" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO140">
+  <autoFilter ref="A1:AO141">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18524,7 +18657,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI139">
+  <conditionalFormatting sqref="A2:AI140">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5284" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5284" uniqueCount="537">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1015,6 +1015,11 @@
     <t>icd-o-3-m</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/icd-o-3"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>http://fhir.de/onkologie/ValueSet/icd-o-3-morphologie</t>
   </si>
   <si>
@@ -1605,7 +1610,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="254293002"/&gt;
-    &lt;display value="Tumor-node-metastasis (TNM) tumor staging system (tumor staging)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1621,7 +1625,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="258244004"/&gt;
-    &lt;display value="Tumor histopathological grade status values (tumor staging)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -8627,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>79</v>
@@ -8646,7 +8649,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8934,7 +8937,7 @@
         <v>251</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>79</v>
@@ -8956,13 +8959,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9637,7 +9640,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9663,16 +9666,16 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9721,7 +9724,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>80</v>
@@ -9742,10 +9745,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9756,7 +9759,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9782,13 +9785,13 @@
         <v>168</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9817,10 +9820,10 @@
         <v>218</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9838,7 +9841,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>80</v>
@@ -9856,24 +9859,24 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9988,7 +9991,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10105,7 +10108,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10222,10 +10225,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>79</v>
@@ -10288,7 +10291,7 @@
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10341,7 +10344,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10456,7 +10459,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10573,7 +10576,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10692,7 +10695,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10809,7 +10812,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10926,7 +10929,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11043,7 +11046,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11162,10 +11165,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>79</v>
@@ -11228,7 +11231,7 @@
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11281,7 +11284,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11396,7 +11399,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11513,7 +11516,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11632,7 +11635,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11749,7 +11752,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11866,7 +11869,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11983,7 +11986,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12102,7 +12105,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12128,16 +12131,16 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12186,7 +12189,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>80</v>
@@ -12207,10 +12210,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12221,11 +12224,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12244,19 +12247,19 @@
         <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12305,7 +12308,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>90</v>
@@ -12317,22 +12320,22 @@
         <v>102</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12340,7 +12343,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12455,7 +12458,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12572,7 +12575,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12598,13 +12601,13 @@
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12654,7 +12657,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>80</v>
@@ -12663,7 +12666,7 @@
         <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>103</v>
@@ -12689,7 +12692,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12715,13 +12718,13 @@
         <v>106</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12750,10 +12753,10 @@
         <v>196</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12771,7 +12774,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>80</v>
@@ -12806,7 +12809,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12832,13 +12835,13 @@
         <v>158</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12888,7 +12891,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>80</v>
@@ -12912,7 +12915,7 @@
         <v>164</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12923,7 +12926,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12949,13 +12952,13 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13005,7 +13008,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>80</v>
@@ -13040,7 +13043,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13063,16 +13066,16 @@
         <v>91</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13122,7 +13125,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>80</v>
@@ -13134,22 +13137,22 @@
         <v>102</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13157,7 +13160,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13180,16 +13183,16 @@
         <v>91</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13227,17 +13230,17 @@
         <v>79</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AB95" s="2"/>
       <c r="AC95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>80</v>
@@ -13252,19 +13255,19 @@
         <v>103</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13272,10 +13275,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>79</v>
@@ -13297,16 +13300,16 @@
         <v>91</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13356,7 +13359,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>80</v>
@@ -13371,19 +13374,19 @@
         <v>103</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13391,7 +13394,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13506,7 +13509,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13623,7 +13626,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13646,16 +13649,16 @@
         <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13705,7 +13708,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>80</v>
@@ -13714,7 +13717,7 @@
         <v>90</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>103</v>
@@ -13726,10 +13729,10 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -13740,7 +13743,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13855,7 +13858,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13972,10 +13975,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>137</v>
@@ -13997,7 +14000,7 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>254</v>
@@ -14091,7 +14094,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14114,13 +14117,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14171,7 +14174,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>80</v>
@@ -14206,7 +14209,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14229,23 +14232,23 @@
         <v>91</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P104" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>79</v>
@@ -14290,7 +14293,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>80</v>
@@ -14299,7 +14302,7 @@
         <v>90</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>103</v>
@@ -14311,10 +14314,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14325,7 +14328,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14440,7 +14443,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14557,10 +14560,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>137</v>
@@ -14582,7 +14585,7 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>254</v>
@@ -14676,7 +14679,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14699,13 +14702,13 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14756,7 +14759,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>80</v>
@@ -14791,10 +14794,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>79</v>
@@ -14816,16 +14819,16 @@
         <v>91</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14875,7 +14878,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>80</v>
@@ -14890,19 +14893,19 @@
         <v>103</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -14910,7 +14913,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14933,16 +14936,16 @@
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -14992,7 +14995,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>80</v>
@@ -15001,7 +15004,7 @@
         <v>90</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>103</v>
@@ -15016,10 +15019,10 @@
         <v>79</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>79</v>
@@ -15027,7 +15030,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15050,13 +15053,13 @@
         <v>91</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15107,7 +15110,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>80</v>
@@ -15128,13 +15131,13 @@
         <v>79</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>79</v>
@@ -15142,7 +15145,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15165,16 +15168,16 @@
         <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15224,7 +15227,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>80</v>
@@ -15236,7 +15239,7 @@
         <v>102</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>79</v>
@@ -15248,10 +15251,10 @@
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>79</v>
@@ -15259,7 +15262,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15282,16 +15285,16 @@
         <v>91</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15341,7 +15344,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>80</v>
@@ -15353,7 +15356,7 @@
         <v>102</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>79</v>
@@ -15362,13 +15365,13 @@
         <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>79</v>
@@ -15376,7 +15379,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15399,13 +15402,13 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15454,7 +15457,7 @@
         <v>144</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>80</v>
@@ -15466,7 +15469,7 @@
         <v>102</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>79</v>
@@ -15478,7 +15481,7 @@
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15489,7 +15492,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15604,7 +15607,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15721,11 +15724,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15747,10 +15750,10 @@
         <v>138</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>141</v>
@@ -15805,7 +15808,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>80</v>
@@ -15840,7 +15843,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15866,10 +15869,10 @@
         <v>168</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>216</v>
@@ -15901,10 +15904,10 @@
         <v>218</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>79</v>
@@ -15922,7 +15925,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>80</v>
@@ -15931,7 +15934,7 @@
         <v>90</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>103</v>
@@ -15940,7 +15943,7 @@
         <v>79</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>178</v>
@@ -15957,7 +15960,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15980,16 +15983,16 @@
         <v>79</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -16039,7 +16042,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>80</v>
@@ -16048,10 +16051,10 @@
         <v>81</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>79</v>
@@ -16063,7 +16066,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16074,7 +16077,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16100,10 +16103,10 @@
         <v>168</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>216</v>
@@ -16135,10 +16138,10 @@
         <v>218</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>79</v>
@@ -16156,7 +16159,7 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>80</v>
@@ -16177,10 +16180,10 @@
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16191,10 +16194,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>79</v>
@@ -16216,13 +16219,13 @@
         <v>79</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -16273,7 +16276,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>80</v>
@@ -16285,7 +16288,7 @@
         <v>102</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>79</v>
@@ -16297,7 +16300,7 @@
         <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16308,7 +16311,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16423,7 +16426,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16540,11 +16543,11 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16566,10 +16569,10 @@
         <v>138</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>141</v>
@@ -16624,7 +16627,7 @@
         <v>79</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>80</v>
@@ -16659,7 +16662,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16685,10 +16688,10 @@
         <v>168</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>216</v>
@@ -16720,10 +16723,10 @@
         <v>218</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>79</v>
@@ -16741,7 +16744,7 @@
         <v>79</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>80</v>
@@ -16750,7 +16753,7 @@
         <v>90</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>103</v>
@@ -16759,7 +16762,7 @@
         <v>79</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>178</v>
@@ -16776,7 +16779,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16799,16 +16802,16 @@
         <v>79</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16858,7 +16861,7 @@
         <v>79</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>80</v>
@@ -16867,10 +16870,10 @@
         <v>81</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>79</v>
@@ -16882,7 +16885,7 @@
         <v>79</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>79</v>
@@ -16893,7 +16896,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16919,10 +16922,10 @@
         <v>168</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>216</v>
@@ -16936,7 +16939,7 @@
         <v>79</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S127" t="s" s="2">
         <v>79</v>
@@ -16954,10 +16957,10 @@
         <v>218</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>79</v>
@@ -16975,7 +16978,7 @@
         <v>79</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>80</v>
@@ -16996,10 +16999,10 @@
         <v>79</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>79</v>
@@ -17010,10 +17013,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>79</v>
@@ -17035,13 +17038,13 @@
         <v>79</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17092,7 +17095,7 @@
         <v>79</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>80</v>
@@ -17104,7 +17107,7 @@
         <v>102</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>79</v>
@@ -17116,7 +17119,7 @@
         <v>79</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>79</v>
@@ -17127,7 +17130,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17242,7 +17245,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17359,11 +17362,11 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17385,10 +17388,10 @@
         <v>138</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>141</v>
@@ -17443,7 +17446,7 @@
         <v>79</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>80</v>
@@ -17478,7 +17481,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17504,10 +17507,10 @@
         <v>168</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>216</v>
@@ -17539,10 +17542,10 @@
         <v>218</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>79</v>
@@ -17560,7 +17563,7 @@
         <v>79</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>80</v>
@@ -17569,7 +17572,7 @@
         <v>90</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>103</v>
@@ -17578,7 +17581,7 @@
         <v>79</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>178</v>
@@ -17595,7 +17598,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17618,16 +17621,16 @@
         <v>79</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17677,7 +17680,7 @@
         <v>79</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>80</v>
@@ -17686,10 +17689,10 @@
         <v>81</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>79</v>
@@ -17701,7 +17704,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -17712,7 +17715,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17738,10 +17741,10 @@
         <v>168</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>216</v>
@@ -17755,7 +17758,7 @@
         <v>79</v>
       </c>
       <c r="R134" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>79</v>
@@ -17773,10 +17776,10 @@
         <v>218</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>79</v>
@@ -17794,7 +17797,7 @@
         <v>79</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>80</v>
@@ -17815,10 +17818,10 @@
         <v>79</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>79</v>
@@ -17829,7 +17832,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17852,16 +17855,16 @@
         <v>79</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -17911,7 +17914,7 @@
         <v>79</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>80</v>
@@ -17923,7 +17926,7 @@
         <v>102</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>79</v>
@@ -17935,7 +17938,7 @@
         <v>79</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>79</v>
@@ -17946,7 +17949,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18061,7 +18064,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18178,11 +18181,11 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18204,10 +18207,10 @@
         <v>138</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>141</v>
@@ -18262,7 +18265,7 @@
         <v>79</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>80</v>
@@ -18297,7 +18300,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18323,10 +18326,10 @@
         <v>168</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>216</v>
@@ -18358,10 +18361,10 @@
         <v>218</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>79</v>
@@ -18379,7 +18382,7 @@
         <v>79</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>80</v>
@@ -18388,25 +18391,25 @@
         <v>81</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>198</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>79</v>
@@ -18414,7 +18417,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18437,16 +18440,16 @@
         <v>91</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18496,7 +18499,7 @@
         <v>79</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>80</v>
@@ -18505,10 +18508,10 @@
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>79</v>
@@ -18520,10 +18523,10 @@
         <v>79</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>79</v>
@@ -18531,7 +18534,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18554,16 +18557,16 @@
         <v>79</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18613,7 +18616,7 @@
         <v>79</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>80</v>
@@ -18628,16 +18631,16 @@
         <v>103</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,6 @@
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}isik-con1:Falls eine kodierte Diagnose vorliegt muss angegeben werden durch welchen Kontakt diese Dokumentation erfolgte. {code.coding.exists() implies encounter.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -295,7 +291,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -738,6 +734,10 @@
   </si>
   <si>
     <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2054,42 +2054,42 @@
     <col min="1" max="1" width="37.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="90.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="89.66015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="16.40234375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2313,19 +2313,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2347,28 +2347,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2418,13 +2418,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2464,25 +2464,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2533,31 +2533,31 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>79</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2579,28 +2579,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2650,31 +2650,31 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2696,7 +2696,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2708,16 +2708,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2743,44 +2743,44 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI6" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>79</v>
@@ -2802,18 +2802,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2825,16 +2825,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2884,31 +2884,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2919,11 +2919,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2942,16 +2942,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3001,7 +3001,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -3025,7 +3025,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3036,11 +3036,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3050,7 +3050,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -3059,16 +3059,16 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3106,19 +3106,19 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB9" t="s" s="2">
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD9" t="s" s="2">
+      <c r="AE9" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3127,10 +3127,10 @@
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3142,7 +3142,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3153,24 +3153,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3178,16 +3178,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3237,7 +3237,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3246,10 +3246,10 @@
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3261,7 +3261,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3272,11 +3272,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3289,25 +3289,25 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3344,19 +3344,19 @@
         <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3365,10 +3365,10 @@
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3380,7 +3380,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3411,22 +3411,22 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3475,7 +3475,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3484,25 +3484,25 @@
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3521,28 +3521,28 @@
         <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3568,58 +3568,58 @@
         <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH13" t="s" s="2">
+      <c r="AI13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3638,28 +3638,28 @@
         <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3685,66 +3685,66 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH14" t="s" s="2">
+      <c r="AI14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AI14" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3767,16 +3767,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3802,14 +3802,14 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3835,25 +3835,25 @@
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI15" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3872,7 +3872,7 @@
         <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -3884,16 +3884,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3919,101 +3919,101 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4038,66 +4038,66 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AJ17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4108,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4120,7 +4120,7 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>229</v>
@@ -4183,7 +4183,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -4201,7 +4201,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4235,16 +4235,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4282,16 +4282,16 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>234</v>
@@ -4303,10 +4303,10 @@
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4318,7 +4318,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4343,13 +4343,13 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>236</v>
@@ -4408,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>242</v>
@@ -4420,10 +4420,10 @@
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4459,16 +4459,16 @@
         <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>246</v>
@@ -4541,10 +4541,10 @@
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4578,7 +4578,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4590,7 +4590,7 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>229</v>
@@ -4653,7 +4653,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -4671,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4705,16 +4705,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4752,16 +4752,16 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>234</v>
@@ -4773,10 +4773,10 @@
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4788,7 +4788,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4805,17 +4805,17 @@
         <v>252</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4833,7 +4833,7 @@
         <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4892,10 +4892,10 @@
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -4907,7 +4907,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4924,17 +4924,17 @@
         <v>256</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4952,7 +4952,7 @@
         <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5011,10 +5011,10 @@
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5026,7 +5026,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5043,17 +5043,17 @@
         <v>258</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5071,7 +5071,7 @@
         <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5130,10 +5130,10 @@
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
@@ -5145,7 +5145,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5164,22 +5164,22 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>261</v>
@@ -5246,13 +5246,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5283,22 +5283,22 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>270</v>
@@ -5363,13 +5363,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5400,22 +5400,22 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>277</v>
@@ -5482,10 +5482,10 @@
         <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>283</v>
@@ -5522,19 +5522,19 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>287</v>
@@ -5601,13 +5601,13 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI30" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5641,16 +5641,16 @@
         <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>294</v>
@@ -5720,13 +5720,13 @@
         <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
@@ -5762,16 +5762,16 @@
         <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>236</v>
@@ -5811,7 +5811,7 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
@@ -5842,10 +5842,10 @@
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5879,7 +5879,7 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5891,7 +5891,7 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>229</v>
@@ -5954,7 +5954,7 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5972,7 +5972,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6006,16 +6006,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6053,16 +6053,16 @@
         <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>234</v>
@@ -6074,10 +6074,10 @@
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
@@ -6089,7 +6089,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6108,22 +6108,22 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>305</v>
@@ -6190,13 +6190,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
@@ -6230,19 +6230,19 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>306</v>
@@ -6307,13 +6307,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI36" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>308</v>
@@ -6426,13 +6426,13 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6466,19 +6466,19 @@
         <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>287</v>
@@ -6545,13 +6545,13 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6585,16 +6585,16 @@
         <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>294</v>
@@ -6664,13 +6664,13 @@
         <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6706,16 +6706,16 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>236</v>
@@ -6755,7 +6755,7 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
@@ -6786,10 +6786,10 @@
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI40" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
@@ -6823,7 +6823,7 @@
         <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6835,7 +6835,7 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>229</v>
@@ -6898,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6916,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6950,16 +6950,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6997,16 +6997,16 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB42" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB42" t="s" s="2">
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>234</v>
@@ -7018,10 +7018,10 @@
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7052,22 +7052,22 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>305</v>
@@ -7134,13 +7134,13 @@
         <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI43" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7174,19 +7174,19 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>306</v>
@@ -7251,13 +7251,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7288,22 +7288,22 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>308</v>
@@ -7370,13 +7370,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7410,19 +7410,19 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>287</v>
@@ -7489,13 +7489,13 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7529,16 +7529,16 @@
         <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>294</v>
@@ -7608,13 +7608,13 @@
         <v>80</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7650,16 +7650,16 @@
         <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>236</v>
@@ -7732,10 +7732,10 @@
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7769,7 +7769,7 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7781,7 +7781,7 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>229</v>
@@ -7844,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -7862,7 +7862,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7896,16 +7896,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7943,16 +7943,16 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>234</v>
@@ -7964,10 +7964,10 @@
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -7979,7 +7979,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7998,22 +7998,22 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>305</v>
@@ -8080,13 +8080,13 @@
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8120,19 +8120,19 @@
         <v>80</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>306</v>
@@ -8197,13 +8197,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8234,22 +8234,22 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>308</v>
@@ -8316,13 +8316,13 @@
         <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI53" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8356,19 +8356,19 @@
         <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>287</v>
@@ -8435,13 +8435,13 @@
         <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8475,16 +8475,16 @@
         <v>80</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>294</v>
@@ -8554,13 +8554,13 @@
         <v>80</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8596,16 +8596,16 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>236</v>
@@ -8645,7 +8645,7 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
@@ -8676,10 +8676,10 @@
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8713,7 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8725,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>229</v>
@@ -8788,7 +8788,7 @@
         <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8806,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8840,16 +8840,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8887,16 +8887,16 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB58" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB58" t="s" s="2">
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>234</v>
@@ -8911,7 +8911,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8923,7 +8923,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8947,10 +8947,10 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9028,7 +9028,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9059,22 +9059,22 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>305</v>
@@ -9141,13 +9141,13 @@
         <v>80</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9181,19 +9181,19 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>306</v>
@@ -9258,13 +9258,13 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9295,22 +9295,22 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>308</v>
@@ -9375,13 +9375,13 @@
         <v>80</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9415,19 +9415,19 @@
         <v>80</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>287</v>
@@ -9492,13 +9492,13 @@
         <v>80</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9532,16 +9532,16 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>294</v>
@@ -9611,13 +9611,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9651,19 +9651,19 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>322</v>
@@ -9730,13 +9730,13 @@
         <v>80</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9773,16 +9773,16 @@
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>330</v>
@@ -9817,7 +9817,7 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>333</v>
@@ -9850,10 +9850,10 @@
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9887,7 +9887,7 @@
         <v>80</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9899,7 +9899,7 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>229</v>
@@ -9962,7 +9962,7 @@
         <v>80</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9980,7 +9980,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10014,16 +10014,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10061,16 +10061,16 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB68" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB68" t="s" s="2">
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>234</v>
@@ -10085,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10097,7 +10097,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>81</v>
@@ -10128,7 +10128,7 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>236</v>
@@ -10187,7 +10187,7 @@
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>242</v>
@@ -10202,7 +10202,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10238,16 +10238,16 @@
         <v>80</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>236</v>
@@ -10287,7 +10287,7 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
@@ -10321,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10355,7 +10355,7 @@
         <v>80</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10367,7 +10367,7 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>229</v>
@@ -10430,7 +10430,7 @@
         <v>80</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10448,7 +10448,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10482,16 +10482,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10529,16 +10529,16 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB72" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB72" t="s" s="2">
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>234</v>
@@ -10553,7 +10553,7 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10565,7 +10565,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10584,22 +10584,22 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>305</v>
@@ -10666,13 +10666,13 @@
         <v>80</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
@@ -10706,19 +10706,19 @@
         <v>80</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>306</v>
@@ -10783,13 +10783,13 @@
         <v>80</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10820,22 +10820,22 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>308</v>
@@ -10900,13 +10900,13 @@
         <v>80</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -10940,19 +10940,19 @@
         <v>80</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G76" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>287</v>
@@ -11017,13 +11017,13 @@
         <v>80</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11057,16 +11057,16 @@
         <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>294</v>
@@ -11136,13 +11136,13 @@
         <v>80</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11175,19 +11175,19 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>236</v>
@@ -11227,7 +11227,7 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
@@ -11261,7 +11261,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11295,7 +11295,7 @@
         <v>80</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11307,7 +11307,7 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>229</v>
@@ -11370,7 +11370,7 @@
         <v>80</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11388,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11422,16 +11422,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11469,16 +11469,16 @@
         <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB80" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB80" t="s" s="2">
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>234</v>
@@ -11493,7 +11493,7 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11505,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11524,22 +11524,22 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>305</v>
@@ -11606,13 +11606,13 @@
         <v>80</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11643,22 +11643,22 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>306</v>
@@ -11723,13 +11723,13 @@
         <v>80</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11760,22 +11760,22 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>308</v>
@@ -11840,13 +11840,13 @@
         <v>80</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -11880,19 +11880,19 @@
         <v>80</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>287</v>
@@ -11957,13 +11957,13 @@
         <v>80</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -11997,16 +11997,16 @@
         <v>80</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>294</v>
@@ -12076,13 +12076,13 @@
         <v>80</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12116,19 +12116,19 @@
         <v>80</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>322</v>
@@ -12195,13 +12195,13 @@
         <v>80</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12232,19 +12232,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>356</v>
@@ -12311,13 +12311,13 @@
         <v>354</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>361</v>
@@ -12354,7 +12354,7 @@
         <v>80</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12366,7 +12366,7 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>229</v>
@@ -12429,7 +12429,7 @@
         <v>80</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12447,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12481,16 +12481,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L89" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12528,16 +12528,16 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB89" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB89" t="s" s="2">
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>234</v>
@@ -12549,10 +12549,10 @@
         <v>81</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12564,7 +12564,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12583,22 +12583,22 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G90" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>369</v>
@@ -12663,25 +12663,25 @@
         <v>80</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>373</v>
       </c>
       <c r="AI90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12703,19 +12703,19 @@
         <v>80</v>
       </c>
       <c r="F91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>375</v>
@@ -12750,7 +12750,7 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>378</v>
@@ -12780,25 +12780,25 @@
         <v>80</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12820,19 +12820,19 @@
         <v>80</v>
       </c>
       <c r="F92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>382</v>
@@ -12897,14 +12897,14 @@
         <v>80</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI92" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>386</v>
@@ -12937,19 +12937,19 @@
         <v>80</v>
       </c>
       <c r="F93" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>388</v>
@@ -13014,25 +13014,25 @@
         <v>80</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI93" t="s" s="2">
+      <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13054,16 +13054,16 @@
         <v>80</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G94" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>393</v>
@@ -13131,10 +13131,10 @@
         <v>80</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>361</v>
@@ -13171,16 +13171,16 @@
         <v>80</v>
       </c>
       <c r="F95" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G95" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>402</v>
@@ -13246,13 +13246,13 @@
         <v>80</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>408</v>
@@ -13288,16 +13288,16 @@
         <v>80</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>413</v>
@@ -13365,13 +13365,13 @@
         <v>80</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>408</v>
@@ -13405,7 +13405,7 @@
         <v>80</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13417,7 +13417,7 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>229</v>
@@ -13480,7 +13480,7 @@
         <v>80</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13498,7 +13498,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13513,7 +13513,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13532,16 +13532,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13579,16 +13579,16 @@
         <v>79</v>
       </c>
       <c r="AA98" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB98" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB98" t="s" s="2">
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>234</v>
@@ -13600,10 +13600,10 @@
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13615,7 +13615,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13637,16 +13637,16 @@
         <v>80</v>
       </c>
       <c r="F99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>417</v>
@@ -13714,13 +13714,13 @@
         <v>80</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>79</v>
@@ -13754,7 +13754,7 @@
         <v>80</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13766,7 +13766,7 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>229</v>
@@ -13829,7 +13829,7 @@
         <v>80</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13847,7 +13847,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13881,16 +13881,16 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13928,16 +13928,16 @@
         <v>79</v>
       </c>
       <c r="AA101" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB101" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB101" t="s" s="2">
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE101" t="s" s="2">
         <v>234</v>
@@ -13949,10 +13949,10 @@
         <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>79</v>
@@ -13964,7 +13964,7 @@
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -13981,14 +13981,14 @@
         <v>427</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
@@ -14009,7 +14009,7 @@
         <v>255</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14068,10 +14068,10 @@
         <v>81</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>79</v>
@@ -14083,7 +14083,7 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14105,7 +14105,7 @@
         <v>80</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>79</v>
@@ -14180,7 +14180,7 @@
         <v>80</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>79</v>
@@ -14220,16 +14220,16 @@
         <v>80</v>
       </c>
       <c r="F104" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>417</v>
@@ -14299,13 +14299,13 @@
         <v>80</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>79</v>
@@ -14339,7 +14339,7 @@
         <v>80</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>79</v>
@@ -14351,7 +14351,7 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>229</v>
@@ -14414,7 +14414,7 @@
         <v>80</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -14432,7 +14432,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14466,16 +14466,16 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14513,16 +14513,16 @@
         <v>79</v>
       </c>
       <c r="AA106" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB106" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB106" t="s" s="2">
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE106" t="s" s="2">
         <v>234</v>
@@ -14534,10 +14534,10 @@
         <v>81</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>79</v>
@@ -14549,7 +14549,7 @@
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14566,14 +14566,14 @@
         <v>442</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>79</v>
@@ -14594,7 +14594,7 @@
         <v>255</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14653,10 +14653,10 @@
         <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>79</v>
@@ -14668,7 +14668,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -14690,7 +14690,7 @@
         <v>80</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>79</v>
@@ -14765,7 +14765,7 @@
         <v>80</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>79</v>
@@ -14807,16 +14807,16 @@
         <v>80</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>417</v>
@@ -14884,13 +14884,13 @@
         <v>80</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH109" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI109" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>408</v>
@@ -14924,10 +14924,10 @@
         <v>80</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G110" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>79</v>
@@ -15001,13 +15001,13 @@
         <v>80</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>449</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>79</v>
@@ -15038,19 +15038,19 @@
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G111" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="H111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>417</v>
@@ -15116,13 +15116,13 @@
         <v>80</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH111" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI111" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>79</v>
@@ -15156,16 +15156,16 @@
         <v>80</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>459</v>
@@ -15233,10 +15233,10 @@
         <v>80</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>361</v>
@@ -15273,16 +15273,16 @@
         <v>80</v>
       </c>
       <c r="F113" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>459</v>
@@ -15350,10 +15350,10 @@
         <v>80</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>361</v>
@@ -15393,7 +15393,7 @@
         <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>79</v>
@@ -15454,7 +15454,7 @@
         <v>79</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE114" t="s" s="2">
         <v>470</v>
@@ -15466,7 +15466,7 @@
         <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>474</v>
@@ -15503,7 +15503,7 @@
         <v>80</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>79</v>
@@ -15515,7 +15515,7 @@
         <v>79</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>229</v>
@@ -15578,7 +15578,7 @@
         <v>80</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>79</v>
@@ -15596,7 +15596,7 @@
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
@@ -15611,7 +15611,7 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15630,16 +15630,16 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K116" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15677,16 +15677,16 @@
         <v>79</v>
       </c>
       <c r="AA116" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB116" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB116" t="s" s="2">
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE116" t="s" s="2">
         <v>234</v>
@@ -15698,10 +15698,10 @@
         <v>81</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>79</v>
@@ -15713,7 +15713,7 @@
         <v>79</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -15741,13 +15741,13 @@
         <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>480</v>
@@ -15756,10 +15756,10 @@
         <v>481</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -15817,10 +15817,10 @@
         <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>79</v>
@@ -15832,7 +15832,7 @@
         <v>79</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>79</v>
@@ -15854,7 +15854,7 @@
         <v>80</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>79</v>
@@ -15866,7 +15866,7 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>484</v>
@@ -15875,7 +15875,7 @@
         <v>485</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15901,7 +15901,7 @@
         <v>79</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>486</v>
@@ -15931,13 +15931,13 @@
         <v>80</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>488</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>79</v>
@@ -15946,10 +15946,10 @@
         <v>489</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16088,7 +16088,7 @@
         <v>80</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>79</v>
@@ -16100,7 +16100,7 @@
         <v>79</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>496</v>
@@ -16109,7 +16109,7 @@
         <v>497</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -16135,7 +16135,7 @@
         <v>79</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X120" t="s" s="2">
         <v>498</v>
@@ -16165,13 +16165,13 @@
         <v>80</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH120" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI120" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>79</v>
@@ -16285,10 +16285,10 @@
         <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>79</v>
@@ -16322,7 +16322,7 @@
         <v>80</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>79</v>
@@ -16334,7 +16334,7 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>229</v>
@@ -16397,7 +16397,7 @@
         <v>80</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>79</v>
@@ -16415,7 +16415,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16449,16 +16449,16 @@
         <v>79</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16496,16 +16496,16 @@
         <v>79</v>
       </c>
       <c r="AA123" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB123" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB123" t="s" s="2">
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE123" t="s" s="2">
         <v>234</v>
@@ -16517,10 +16517,10 @@
         <v>81</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>79</v>
@@ -16532,7 +16532,7 @@
         <v>79</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>79</v>
@@ -16560,13 +16560,13 @@
         <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>480</v>
@@ -16575,10 +16575,10 @@
         <v>481</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>79</v>
@@ -16636,10 +16636,10 @@
         <v>81</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>79</v>
@@ -16651,7 +16651,7 @@
         <v>79</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>79</v>
@@ -16673,7 +16673,7 @@
         <v>80</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>79</v>
@@ -16685,7 +16685,7 @@
         <v>79</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>484</v>
@@ -16694,7 +16694,7 @@
         <v>485</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16720,7 +16720,7 @@
         <v>79</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X125" t="s" s="2">
         <v>486</v>
@@ -16750,13 +16750,13 @@
         <v>80</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>488</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>79</v>
@@ -16765,10 +16765,10 @@
         <v>489</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>79</v>
@@ -16793,7 +16793,7 @@
         <v>81</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>79</v>
@@ -16904,14 +16904,14 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G127" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F127" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H127" t="s" s="2">
         <v>79</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>79</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>496</v>
@@ -16928,7 +16928,7 @@
         <v>497</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16954,7 +16954,7 @@
         <v>79</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X127" t="s" s="2">
         <v>498</v>
@@ -16984,13 +16984,13 @@
         <v>80</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH127" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI127" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>79</v>
@@ -17029,7 +17029,7 @@
         <v>81</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>79</v>
@@ -17104,7 +17104,7 @@
         <v>81</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>474</v>
@@ -17141,7 +17141,7 @@
         <v>80</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>79</v>
@@ -17153,7 +17153,7 @@
         <v>79</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>229</v>
@@ -17216,7 +17216,7 @@
         <v>80</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>79</v>
@@ -17234,7 +17234,7 @@
         <v>79</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>79</v>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17268,16 +17268,16 @@
         <v>79</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17315,16 +17315,16 @@
         <v>79</v>
       </c>
       <c r="AA130" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB130" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB130" t="s" s="2">
+      <c r="AC130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD130" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE130" t="s" s="2">
         <v>234</v>
@@ -17336,10 +17336,10 @@
         <v>81</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>79</v>
@@ -17351,7 +17351,7 @@
         <v>79</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17379,13 +17379,13 @@
         <v>79</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>480</v>
@@ -17394,10 +17394,10 @@
         <v>481</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>79</v>
@@ -17455,10 +17455,10 @@
         <v>81</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>79</v>
@@ -17470,7 +17470,7 @@
         <v>79</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>79</v>
@@ -17492,7 +17492,7 @@
         <v>80</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>79</v>
@@ -17504,7 +17504,7 @@
         <v>79</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>484</v>
@@ -17513,7 +17513,7 @@
         <v>485</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17539,7 +17539,7 @@
         <v>79</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>486</v>
@@ -17569,13 +17569,13 @@
         <v>80</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>488</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>79</v>
@@ -17584,10 +17584,10 @@
         <v>489</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>79</v>
@@ -17612,7 +17612,7 @@
         <v>81</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>79</v>
@@ -17723,14 +17723,14 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G134" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F134" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H134" t="s" s="2">
         <v>79</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>79</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>496</v>
@@ -17747,7 +17747,7 @@
         <v>497</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17773,7 +17773,7 @@
         <v>79</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>498</v>
@@ -17803,13 +17803,13 @@
         <v>80</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH134" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI134" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>79</v>
@@ -17846,7 +17846,7 @@
         <v>81</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>79</v>
@@ -17923,7 +17923,7 @@
         <v>81</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>511</v>
@@ -17960,7 +17960,7 @@
         <v>80</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>79</v>
@@ -17972,7 +17972,7 @@
         <v>79</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>229</v>
@@ -18035,7 +18035,7 @@
         <v>80</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>79</v>
@@ -18053,7 +18053,7 @@
         <v>79</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>79</v>
@@ -18068,7 +18068,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18087,16 +18087,16 @@
         <v>79</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>233</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18134,16 +18134,16 @@
         <v>79</v>
       </c>
       <c r="AA137" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB137" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AB137" t="s" s="2">
+      <c r="AC137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD137" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>234</v>
@@ -18155,10 +18155,10 @@
         <v>81</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>79</v>
@@ -18170,7 +18170,7 @@
         <v>79</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>79</v>
@@ -18198,13 +18198,13 @@
         <v>79</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>480</v>
@@ -18213,10 +18213,10 @@
         <v>481</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>79</v>
@@ -18274,10 +18274,10 @@
         <v>81</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>79</v>
@@ -18289,7 +18289,7 @@
         <v>79</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>79</v>
@@ -18320,10 +18320,10 @@
         <v>79</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>517</v>
@@ -18332,7 +18332,7 @@
         <v>518</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -18358,7 +18358,7 @@
         <v>79</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>519</v>
@@ -18394,13 +18394,13 @@
         <v>521</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>522</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>336</v>
@@ -18431,13 +18431,13 @@
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>526</v>
@@ -18548,7 +18548,7 @@
         <v>81</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>79</v>
@@ -18625,10 +18625,10 @@
         <v>81</v>
       </c>
       <c r="AH141" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI141" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>534</v>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1862,7 +1862,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="254293002"/&gt;
+    &lt;code value="258234001"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1743,6 +1743,10 @@
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:type}
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -16063,7 +16067,7 @@
         <v>80</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>244</v>
+        <v>551</v>
       </c>
       <c r="AC114" s="2"/>
       <c r="AD114" t="s" s="2">
@@ -16085,7 +16089,7 @@
         <v>103</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>80</v>
@@ -16097,7 +16101,7 @@
         <v>80</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>80</v>
@@ -16108,10 +16112,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16226,10 +16230,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16346,14 +16350,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16375,10 +16379,10 @@
         <v>139</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>142</v>
@@ -16433,7 +16437,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16468,10 +16472,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16497,10 +16501,10 @@
         <v>170</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>218</v>
@@ -16532,10 +16536,10 @@
         <v>220</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>80</v>
@@ -16553,7 +16557,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16562,7 +16566,7 @@
         <v>91</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>104</v>
@@ -16571,7 +16575,7 @@
         <v>80</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>180</v>
@@ -16588,10 +16592,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16614,13 +16618,13 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>422</v>
@@ -16673,7 +16677,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -16682,7 +16686,7 @@
         <v>82</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>424</v>
@@ -16697,7 +16701,7 @@
         <v>80</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>80</v>
@@ -16708,10 +16712,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16737,10 +16741,10 @@
         <v>170</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>218</v>
@@ -16772,10 +16776,10 @@
         <v>220</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -16793,7 +16797,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16817,7 +16821,7 @@
         <v>383</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>80</v>
@@ -16828,13 +16832,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>547</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>80</v>
@@ -16937,7 +16941,7 @@
         <v>80</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>80</v>
@@ -16948,10 +16952,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17066,10 +17070,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17186,14 +17190,14 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17215,10 +17219,10 @@
         <v>139</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N124" t="s" s="2">
         <v>142</v>
@@ -17273,7 +17277,7 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17308,10 +17312,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17337,10 +17341,10 @@
         <v>170</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N125" t="s" s="2">
         <v>218</v>
@@ -17372,10 +17376,10 @@
         <v>220</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>80</v>
@@ -17393,7 +17397,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -17402,7 +17406,7 @@
         <v>91</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>104</v>
@@ -17411,7 +17415,7 @@
         <v>80</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>180</v>
@@ -17428,10 +17432,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17454,13 +17458,13 @@
         <v>80</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>422</v>
@@ -17513,7 +17517,7 @@
         <v>80</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17522,7 +17526,7 @@
         <v>82</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>424</v>
@@ -17537,7 +17541,7 @@
         <v>80</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>80</v>
@@ -17548,10 +17552,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17577,10 +17581,10 @@
         <v>170</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>218</v>
@@ -17594,7 +17598,7 @@
         <v>80</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>80</v>
@@ -17612,10 +17616,10 @@
         <v>220</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>80</v>
@@ -17633,7 +17637,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -17657,7 +17661,7 @@
         <v>383</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>80</v>
@@ -17668,13 +17672,13 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>547</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>80</v>
@@ -17765,7 +17769,7 @@
         <v>103</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>80</v>
@@ -17777,7 +17781,7 @@
         <v>80</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>80</v>
@@ -17788,10 +17792,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17906,10 +17910,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18026,14 +18030,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -18055,10 +18059,10 @@
         <v>139</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>142</v>
@@ -18113,7 +18117,7 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -18148,10 +18152,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18177,10 +18181,10 @@
         <v>170</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>218</v>
@@ -18212,10 +18216,10 @@
         <v>220</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>80</v>
@@ -18233,7 +18237,7 @@
         <v>80</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -18242,7 +18246,7 @@
         <v>91</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>104</v>
@@ -18251,7 +18255,7 @@
         <v>80</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>180</v>
@@ -18268,10 +18272,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18294,13 +18298,13 @@
         <v>80</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N133" t="s" s="2">
         <v>422</v>
@@ -18353,7 +18357,7 @@
         <v>80</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
@@ -18362,7 +18366,7 @@
         <v>82</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>424</v>
@@ -18377,7 +18381,7 @@
         <v>80</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>80</v>
@@ -18388,10 +18392,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18417,10 +18421,10 @@
         <v>170</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>218</v>
@@ -18434,7 +18438,7 @@
         <v>80</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>80</v>
@@ -18452,10 +18456,10 @@
         <v>220</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>80</v>
@@ -18473,7 +18477,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18497,7 +18501,7 @@
         <v>383</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>80</v>
@@ -18508,10 +18512,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18537,13 +18541,13 @@
         <v>548</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -18593,7 +18597,7 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -18605,7 +18609,7 @@
         <v>103</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>80</v>
@@ -18617,7 +18621,7 @@
         <v>80</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>80</v>
@@ -18628,10 +18632,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18746,10 +18750,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18866,14 +18870,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -18895,10 +18899,10 @@
         <v>139</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>142</v>
@@ -18953,7 +18957,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18988,10 +18992,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19017,10 +19021,10 @@
         <v>170</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>218</v>
@@ -19052,10 +19056,10 @@
         <v>220</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>80</v>
@@ -19073,7 +19077,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -19082,13 +19086,13 @@
         <v>82</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>200</v>
@@ -19097,10 +19101,10 @@
         <v>383</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>80</v>
@@ -19108,10 +19112,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19134,13 +19138,13 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N140" t="s" s="2">
         <v>422</v>
@@ -19193,7 +19197,7 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -19202,7 +19206,7 @@
         <v>82</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>424</v>
@@ -19217,10 +19221,10 @@
         <v>80</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>80</v>
@@ -19228,10 +19232,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19254,16 +19258,16 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -19313,7 +19317,7 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -19328,16 +19332,16 @@
         <v>104</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Tumor Disorder</t>
+    <t>Profile Tumor Disorder</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-disorder.xlsx
+++ b/StructureDefinition-tumor-disorder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
